--- a/pearson_tables/t2m_netherlands-1-6.xlsx
+++ b/pearson_tables/t2m_netherlands-1-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7308627676120333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6428744930711059</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.7002133243898587</v>
+        <v>-0.7408193608915867</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.8260736921235494</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7808987424089125</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7216920722950498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8600128451849517</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8583705695210476</v>
+        <v>-0.8054181204736273</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8379440163542567</v>
+        <v>0.855579324889862</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8634011490153357</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6847331552120162</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6000034702886942</v>
+        <v>-0.7337797524471147</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8500521278780773</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7636281164845684</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7492585161796469</v>
+        <v>0.7971811277496741</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7208785914260278</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.556856884135482</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5883701640119935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7678038492506508</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7108342205053872</v>
+        <v>-0.6449175073713862</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7893004726026444</v>
+        <v>-0.7137994995163868</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.8008809477342543</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6899290356052656</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7948483761960859</v>
+        <v>-0.8002277818017173</v>
       </c>
     </row>
   </sheetData>
